--- a/allTest_MSSP1orgJune.xlsx
+++ b/allTest_MSSP1orgJune.xlsx
@@ -858,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -875,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -909,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -926,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -943,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -960,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -977,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -994,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>4019207</v>
+        <v>4009521</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1011,13 +1011,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2282901</v>
+        <v>2262983</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1028,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1045,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1062,13 +1062,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>25484854</v>
+        <v>25287467</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1079,13 +1079,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>8038414</v>
+        <v>8019042</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1096,13 +1096,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>85547644</v>
+        <v>85355912</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1113,13 +1113,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>4435435</v>
+        <v>4431335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1130,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1147,13 +1147,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3044833</v>
+        <v>2774625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1164,13 +1164,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>85547644</v>
+        <v>85355912</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>8417</v>
+        <v>8401</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1318,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1350,7 +1350,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1382,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1414,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1446,7 +1446,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1478,7 +1478,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -1510,13 +1510,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>4019207</v>
+        <v>4009521</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1531,7 +1531,7 @@
         <v>4009521</v>
       </c>
       <c r="J10">
-        <v>9686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1542,13 +1542,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2282901</v>
+        <v>2262983</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -1563,7 +1563,7 @@
         <v>2399697</v>
       </c>
       <c r="J11">
-        <v>-116796</v>
+        <v>-136714</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1574,7 +1574,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1606,7 +1606,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1638,13 +1638,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>25484854</v>
+        <v>25287467</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -1659,7 +1659,7 @@
         <v>23071285</v>
       </c>
       <c r="J14">
-        <v>2413569</v>
+        <v>2216182</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1670,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>8038414</v>
+        <v>8019042</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -1691,7 +1691,7 @@
         <v>8019042</v>
       </c>
       <c r="J15">
-        <v>19372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1702,13 +1702,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>85547644</v>
+        <v>85355912</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -1723,7 +1723,7 @@
         <v>85355912</v>
       </c>
       <c r="J16">
-        <v>191732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1734,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>4435435</v>
+        <v>4431335</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -1755,7 +1755,7 @@
         <v>4431335</v>
       </c>
       <c r="J17">
-        <v>4100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1766,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1798,13 +1798,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3044833</v>
+        <v>2774625</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1819,7 +1819,7 @@
         <v>3001414</v>
       </c>
       <c r="J19">
-        <v>43419</v>
+        <v>-226789</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1830,13 +1830,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>85547644</v>
+        <v>85355912</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -1851,7 +1851,7 @@
         <v>85355912</v>
       </c>
       <c r="J20">
-        <v>191732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1882,13 +1882,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>8417</v>
+        <v>8401</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -1903,7 +1903,7 @@
         <v>8417</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-16</v>
       </c>
     </row>
   </sheetData>
@@ -2028,11 +2028,8 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
-        <v>19372</v>
-      </c>
       <c r="D10">
-        <v>9686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2086,11 +2083,8 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
-        <v>38744</v>
-      </c>
       <c r="D15">
-        <v>19372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2100,11 +2094,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
-        <v>383464</v>
-      </c>
       <c r="D16">
-        <v>191732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2114,11 +2105,8 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17">
-        <v>8200</v>
-      </c>
       <c r="D17">
-        <v>4100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
